--- a/Data/Online.xlsx
+++ b/Data/Online.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16760"/>
+    <workbookView windowWidth="23660" windowHeight="10860"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>编号</t>
   </si>
@@ -35,6 +35,9 @@
     <t>名称</t>
   </si>
   <si>
+    <t>开始编号</t>
+  </si>
+  <si>
     <t>图片数量</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
   <si>
     <t>C</t>
@@ -732,29 +738,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1080,24 +1086,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.28571428571429" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="68.3035714285714" style="4" customWidth="1"/>
-    <col min="5" max="5" width="31.6964285714286" customWidth="1"/>
+    <col min="2" max="3" width="12.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="68.3035714285714" style="4" customWidth="1"/>
+    <col min="6" max="6" width="31.6964285714286" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" spans="1:6">
+    <row r="1" ht="18" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1107,64 +1113,72 @@
       <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" ht="18" spans="1:4">
+    <row r="2" ht="18" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" ht="36" spans="1:4">
-      <c r="A3" s="9">
+    <row r="3" ht="36" spans="1:5">
+      <c r="A3" s="7">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="7">
         <v>4</v>
       </c>
-      <c r="D3" s="11" t="str">
-        <f>E1&amp;B3&amp;"/"</f>
+      <c r="E3" s="13" t="str">
+        <f>F1&amp;B3&amp;"/"</f>
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Top/</v>
       </c>
     </row>
-    <row r="4" ht="36" spans="1:4">
-      <c r="A4" s="9">
+    <row r="4" ht="36" spans="1:5">
+      <c r="A4" s="7">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="11" t="str">
-        <f>E1&amp;B4&amp;"/"</f>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="13" t="str">
+        <f>F1&amp;B4&amp;"/"</f>
         <v>https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/New/</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E1" r:id="rId1" display="https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/"/>
-    <hyperlink ref="F1" r:id="rId2" display="https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/"/>
+    <hyperlink ref="F1" r:id="rId1" display="https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/"/>
+    <hyperlink ref="G1" r:id="rId2" display="https://raw.githubusercontent.com/wangzongjun/Jigsaw2025/refs/heads/main/Thumbnail/"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
